--- a/allTest_MSSPA2024July.xlsx
+++ b/allTest_MSSPA2024July.xlsx
@@ -108,37 +108,37 @@
     <t>m-2022-06</t>
   </si>
   <si>
+    <t>orgDBName_x</t>
+  </si>
+  <si>
+    <t>MaxLoadTS_x</t>
+  </si>
+  <si>
+    <t>MaxLP_x</t>
+  </si>
+  <si>
+    <t>rwCount_x</t>
+  </si>
+  <si>
+    <t>orgDBName_y</t>
+  </si>
+  <si>
+    <t>MaxLoadTS_y</t>
+  </si>
+  <si>
+    <t>MaxLP_y</t>
+  </si>
+  <si>
+    <t>rwCount_y</t>
+  </si>
+  <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t>INT_A2024_FE</t>
+  </si>
+  <si>
     <t>m-2022-05</t>
-  </si>
-  <si>
-    <t>orgDBName_x</t>
-  </si>
-  <si>
-    <t>MaxLoadTS_x</t>
-  </si>
-  <si>
-    <t>MaxLP_x</t>
-  </si>
-  <si>
-    <t>rwCount_x</t>
-  </si>
-  <si>
-    <t>orgDBName_y</t>
-  </si>
-  <si>
-    <t>MaxLoadTS_y</t>
-  </si>
-  <si>
-    <t>MaxLP_y</t>
-  </si>
-  <si>
-    <t>rwCount_y</t>
-  </si>
-  <si>
-    <t>diff</t>
-  </si>
-  <si>
-    <t>INT_A2024_FE</t>
   </si>
   <si>
     <t>rowsEffected</t>
@@ -1195,13 +1195,13 @@
         <v>26</v>
       </c>
       <c r="C16" s="2">
-        <v>44733</v>
+        <v>44763</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16">
-        <v>525975453</v>
+        <v>527145057</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1263,13 +1263,13 @@
         <v>26</v>
       </c>
       <c r="C20" s="2">
-        <v>44733</v>
+        <v>44763</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20">
-        <v>525975453</v>
+        <v>527145057</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1280,13 +1280,13 @@
         <v>26</v>
       </c>
       <c r="C21" s="2">
-        <v>44733</v>
+        <v>44763</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21">
-        <v>22931</v>
+        <v>23317</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1324,31 +1324,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1368,13 +1368,13 @@
         <v>97665</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2">
         <v>44729</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I2">
         <v>97200</v>
@@ -1400,13 +1400,13 @@
         <v>166553</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" s="2">
         <v>44729</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I3">
         <v>165852</v>
@@ -1432,13 +1432,13 @@
         <v>544509</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" s="2">
         <v>44729</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I4">
         <v>540956</v>
@@ -1464,13 +1464,13 @@
         <v>408865</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" s="2">
         <v>44729</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I5">
         <v>406666</v>
@@ -1496,13 +1496,13 @@
         <v>317533615</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" s="2">
         <v>44729</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I6">
         <v>314423186</v>
@@ -1528,13 +1528,13 @@
         <v>117348527</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" s="2">
         <v>44729</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I7">
         <v>116108977</v>
@@ -1560,13 +1560,13 @@
         <v>1583500</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G8" s="2">
         <v>44729</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I8">
         <v>1568636</v>
@@ -1592,13 +1592,13 @@
         <v>12782862</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G9" s="2">
         <v>44729</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I9">
         <v>12782862</v>
@@ -1624,13 +1624,13 @@
         <v>24169176</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G10" s="2">
         <v>44729</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I10">
         <v>24169176</v>
@@ -1656,13 +1656,13 @@
         <v>27454092</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" s="2">
         <v>44729</v>
       </c>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I11">
         <v>27054470</v>
@@ -1688,13 +1688,13 @@
         <v>153043796</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G12" s="2">
         <v>44729</v>
       </c>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I12">
         <v>152120831</v>
@@ -1720,13 +1720,13 @@
         <v>18718572</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G13" s="2">
         <v>44729</v>
       </c>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I13">
         <v>18569230</v>
@@ -1752,13 +1752,13 @@
         <v>88773148</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G14" s="2">
         <v>44729</v>
       </c>
       <c r="H14" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I14">
         <v>125418788</v>
@@ -1784,13 +1784,13 @@
         <v>48338352</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G15" s="2">
         <v>44729</v>
       </c>
       <c r="H15" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I15">
         <v>48338352</v>
@@ -1807,28 +1807,28 @@
         <v>26</v>
       </c>
       <c r="C16" s="2">
-        <v>44733</v>
+        <v>44763</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16">
-        <v>525975453</v>
+        <v>527145057</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G16" s="2">
         <v>44733</v>
       </c>
       <c r="H16" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I16">
         <v>525975453</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1169604</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1848,13 +1848,13 @@
         <v>33939149</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G17" s="2">
         <v>44729</v>
       </c>
       <c r="H17" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I17">
         <v>33459977</v>
@@ -1880,13 +1880,13 @@
         <v>23313735</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G18" s="2">
         <v>44729</v>
       </c>
       <c r="H18" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I18">
         <v>23208466</v>
@@ -1912,13 +1912,13 @@
         <v>16030029</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19" s="2">
         <v>44729</v>
       </c>
       <c r="H19" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I19">
         <v>15759305</v>
@@ -1935,28 +1935,28 @@
         <v>26</v>
       </c>
       <c r="C20" s="2">
-        <v>44733</v>
+        <v>44763</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20">
-        <v>525975453</v>
+        <v>527145057</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G20" s="2">
         <v>44733</v>
       </c>
       <c r="H20" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I20">
         <v>525975453</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1169604</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1967,28 +1967,28 @@
         <v>26</v>
       </c>
       <c r="C21" s="2">
-        <v>44733</v>
+        <v>44763</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21">
-        <v>22931</v>
+        <v>23317</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G21" s="2">
         <v>44733</v>
       </c>
       <c r="H21" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I21">
         <v>22931</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>386</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2008,13 +2008,13 @@
         <v>53924323</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G22" s="2">
         <v>44729</v>
       </c>
       <c r="H22" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I22">
         <v>53875136</v>
@@ -3288,31 +3288,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3332,7 +3332,7 @@
         <v>1106</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2">
         <v>44726</v>
@@ -3364,7 +3364,7 @@
         <v>13761546</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" s="2">
         <v>44726</v>
@@ -3396,7 +3396,7 @@
         <v>121641333</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" s="2">
         <v>44726</v>
@@ -3428,7 +3428,7 @@
         <v>1421653</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" s="2">
         <v>44726</v>
@@ -3460,7 +3460,7 @@
         <v>63084291</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" s="2">
         <v>44726</v>
@@ -3492,7 +3492,7 @@
         <v>132288410</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" s="2">
         <v>44726</v>
@@ -3524,7 +3524,7 @@
         <v>7196790</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G8" s="2">
         <v>44726</v>
@@ -3556,7 +3556,7 @@
         <v>106923956</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G9" s="2">
         <v>44726</v>
@@ -3588,7 +3588,7 @@
         <v>4897978</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G10" s="2">
         <v>44726</v>
@@ -3620,7 +3620,7 @@
         <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" s="2">
         <v>44728</v>
@@ -3652,7 +3652,7 @@
         <v>3571694</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G12" s="2">
         <v>44720</v>
@@ -3684,7 +3684,7 @@
         <v>2641369</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G13" s="2">
         <v>44720</v>
@@ -3716,7 +3716,7 @@
         <v>3016141</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G14" s="2">
         <v>44720</v>
@@ -3748,7 +3748,7 @@
         <v>24032</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G15" s="2">
         <v>43889</v>
@@ -3780,7 +3780,7 @@
         <v>4289506</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G16" s="2">
         <v>44720</v>
@@ -3812,7 +3812,7 @@
         <v>296486</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G17" s="2">
         <v>44720</v>
@@ -3844,7 +3844,7 @@
         <v>3571808</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G18" s="2">
         <v>44720</v>
@@ -3876,7 +3876,7 @@
         <v>15198108</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19" s="2">
         <v>44726</v>
@@ -3908,7 +3908,7 @@
         <v>302</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G20" s="2">
         <v>44291</v>
@@ -3940,7 +3940,7 @@
         <v>146716915</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G21" s="2">
         <v>44726</v>
@@ -3972,7 +3972,7 @@
         <v>32</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G22" s="2">
         <v>44720</v>
@@ -4004,7 +4004,7 @@
         <v>1982</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G23" s="2">
         <v>44720</v>
@@ -4036,7 +4036,7 @@
         <v>60</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G24" s="2">
         <v>44720</v>
@@ -4068,7 +4068,7 @@
         <v>57</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G25" s="2">
         <v>43621</v>
@@ -4100,7 +4100,7 @@
         <v>247</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G26" s="2">
         <v>44720</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -4159,7 +4159,7 @@
         <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4">
